--- a/project1/test/data.xlsx
+++ b/project1/test/data.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ADS_Tmp\zju-ads-project\project1\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="38" windowWidth="15960" windowHeight="18083"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1 - Insert N integers in in" sheetId="1" r:id="rId4"/>
-    <sheet name="工作表 2 - Insert N integers in in" sheetId="2" r:id="rId5"/>
-    <sheet name="工作表 3 - Insert N integers in ra" sheetId="3" r:id="rId6"/>
+    <sheet name="工作表 1 - Insert N integers in in" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表 2 - Insert N integers in in" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表 3 - Insert N integers in ra" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Insert N integers in increasing order and delete them in the same order</t>
   </si>
@@ -43,11 +50,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -59,10 +63,16 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -200,93 +210,155 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -485,7 +557,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -504,7 +576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -534,7 +606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -560,7 +632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -586,7 +658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -612,7 +684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -638,7 +710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,9 +827,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -774,7 +852,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -793,7 +871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -845,7 +923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,7 +949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +975,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +1001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +1027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,9 +1118,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1056,7 +1140,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1075,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,7 +1241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,345 +1410,351 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" style="1" customWidth="1"/>
+    <col min="3" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.7" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>3.699</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.614</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.482</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
+      <c r="B3" s="5">
+        <v>3.6989999999999998</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
-        <v>13.886</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9">
+        <v>13.885999999999999</v>
+      </c>
+      <c r="C4" s="10">
         <v>1.292</v>
       </c>
-      <c r="D4" s="11">
-        <v>0.9330000000000001</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
+      <c r="D4" s="10">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
-        <v>31.243</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2.049</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="B5" s="9">
+        <v>31.242999999999999</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="D5" s="10">
         <v>1.29</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
-        <v>57.713</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2.693</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="9">
+        <v>57.713000000000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="D6" s="10">
         <v>1.702</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
-        <v>95.465</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9">
+        <v>95.465000000000003</v>
+      </c>
+      <c r="C7" s="10">
         <v>3.601</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>2.14</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>134.547</v>
       </c>
-      <c r="C8" s="11">
-        <v>4.301</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="10">
+        <v>4.3010000000000002</v>
+      </c>
+      <c r="D8" s="10">
         <v>2.698</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>188.58</v>
       </c>
-      <c r="C9" s="11">
-        <v>4.929</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="10">
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="D9" s="10">
         <v>3.012</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
-        <v>250.152</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9">
+        <v>250.15199999999999</v>
+      </c>
+      <c r="C10" s="10">
         <v>5.609</v>
       </c>
-      <c r="D10" s="11">
-        <v>3.626</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9">
+      <c r="D10" s="10">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>319.714</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>6.97</v>
       </c>
-      <c r="D11" s="11">
-        <v>3.788</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9">
+      <c r="D11" s="10">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
-        <v>395.328</v>
-      </c>
-      <c r="C12" s="11">
-        <v>6.916</v>
-      </c>
-      <c r="D12" s="11">
-        <v>4.418</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" t="s" s="15">
+      <c r="B12" s="9">
+        <v>395.32799999999997</v>
+      </c>
+      <c r="C12" s="10">
+        <v>6.9160000000000004</v>
+      </c>
+      <c r="D12" s="10">
+        <v>4.4180000000000001</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.35" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B14:D14"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1672,206 +1762,205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="16" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="16" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="27.7" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>8.095000000000001</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.546</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.284</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
+      <c r="B3" s="5">
+        <v>8.0950000000000006</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>33.56</v>
       </c>
-      <c r="C4" s="11">
-        <v>1.192</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.547</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
+      <c r="C4" s="10">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
-        <v>75.818</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1.816</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.773</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9">
+      <c r="B5" s="9">
+        <v>75.817999999999998</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
-        <v>141.807</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2.462</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.967</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9">
+      <c r="B6" s="9">
+        <v>141.80699999999999</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
-        <v>231.247</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9">
+        <v>231.24700000000001</v>
+      </c>
+      <c r="C7" s="10">
         <v>3.165</v>
       </c>
-      <c r="D7" s="11">
-        <v>1.241</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9">
+      <c r="D7" s="10">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
-        <v>340.504</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9">
+        <v>340.50400000000002</v>
+      </c>
+      <c r="C8" s="10">
         <v>4.05</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>1.524</v>
       </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
-        <v>473.064</v>
-      </c>
-      <c r="C9" s="11">
-        <v>4.395</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B9" s="9">
+        <v>473.06400000000002</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="D9" s="10">
         <v>1.748</v>
       </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
-        <v>632.216</v>
-      </c>
-      <c r="C10" s="11">
-        <v>4.958</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="B10" s="9">
+        <v>632.21600000000001</v>
+      </c>
+      <c r="C10" s="10">
+        <v>4.9580000000000002</v>
+      </c>
+      <c r="D10" s="10">
         <v>1.998</v>
       </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
-        <v>805.574</v>
-      </c>
-      <c r="C11" s="11">
-        <v>5.581</v>
-      </c>
-      <c r="D11" s="11">
-        <v>2.277</v>
-      </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9">
+      <c r="B11" s="9">
+        <v>805.57399999999996</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.5810000000000004</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>1009.729</v>
       </c>
-      <c r="C12" s="11">
-        <v>6.199</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2.606</v>
-      </c>
-      <c r="E12" s="12"/>
+      <c r="C12" s="10">
+        <v>6.1989999999999998</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1879,206 +1968,205 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="17" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="27.7" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.481</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C3" s="6">
         <v>0.96</v>
       </c>
-      <c r="D3" s="7">
-        <v>2.042</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
+      <c r="D3" s="6">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
-        <v>0.951</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1.634</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="B4" s="9">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.6339999999999999</v>
+      </c>
+      <c r="D4" s="10">
         <v>4.516</v>
       </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
-        <v>1.493</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2.975</v>
-      </c>
-      <c r="D5" s="11">
-        <v>7.302</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9">
+      <c r="B5" s="9">
+        <v>1.4930000000000001</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="D5" s="10">
+        <v>7.3019999999999996</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
-        <v>2.064</v>
-      </c>
-      <c r="C6" s="11">
-        <v>3.815</v>
-      </c>
-      <c r="D6" s="11">
-        <v>9.829000000000001</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9">
+      <c r="B6" s="9">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="D6" s="10">
+        <v>9.8290000000000006</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>2.59</v>
       </c>
-      <c r="C7" s="11">
-        <v>4.743</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="10">
+        <v>4.7430000000000003</v>
+      </c>
+      <c r="D7" s="10">
         <v>12.724</v>
       </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>3.4</v>
       </c>
-      <c r="C8" s="11">
-        <v>6.081</v>
-      </c>
-      <c r="D8" s="11">
-        <v>15.611</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9">
+      <c r="C8" s="10">
+        <v>6.0810000000000004</v>
+      </c>
+      <c r="D8" s="10">
+        <v>15.611000000000001</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
-        <v>3.854</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9">
+        <v>3.8540000000000001</v>
+      </c>
+      <c r="C9" s="10">
         <v>6.843</v>
       </c>
-      <c r="D9" s="11">
-        <v>18.839</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9">
+      <c r="D9" s="10">
+        <v>18.838999999999999</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
-        <v>4.515</v>
-      </c>
-      <c r="C10" s="11">
-        <v>8.417</v>
-      </c>
-      <c r="D10" s="11">
-        <v>22.569</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9">
+      <c r="B10" s="9">
+        <v>4.5149999999999997</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8.4169999999999998</v>
+      </c>
+      <c r="D10" s="10">
+        <v>22.568999999999999</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
-        <v>5.247</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="9">
+        <v>5.2469999999999999</v>
+      </c>
+      <c r="C11" s="10">
         <v>9.56</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>25.788</v>
       </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
-        <v>5.853</v>
-      </c>
-      <c r="C12" s="11">
-        <v>11.348</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="B12" s="9">
+        <v>5.8529999999999998</v>
+      </c>
+      <c r="C12" s="10">
+        <v>11.348000000000001</v>
+      </c>
+      <c r="D12" s="10">
         <v>29.029</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
